--- a/data/trans_media/imc_inf-Estudios-trans_media.xlsx
+++ b/data/trans_media/imc_inf-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,38</t>
+          <t>20,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,44</t>
+          <t>19,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,03</t>
+          <t>19,88</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,61</t>
+          <t>19,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,16</t>
+          <t>19,26</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>19,62</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21,14</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19,47</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20,01</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>19,72</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>21,03</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>19,32</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>20,21</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>19,59</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20,51</t>
+          <t>20,47</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,47</t>
+          <t>19,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,14; 23,77</t>
+          <t>19,79; 23,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,64; 20,2</t>
+          <t>19,1; 20,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,12; 21,18</t>
+          <t>18,97; 21,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,24; 23,17</t>
+          <t>18,39; 23,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 20,18</t>
+          <t>18,57; 20,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,8; 20,63</t>
+          <t>18,73; 20,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,94; 22,97</t>
+          <t>19,95; 23,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,24; 20,38</t>
+          <t>18,4; 20,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,45; 21,37</t>
+          <t>19,36; 21,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,0; 20,24</t>
+          <t>19,11; 20,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19,76; 21,49</t>
+          <t>19,71; 21,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,65; 21,36</t>
+          <t>18,75; 21,82</t>
         </is>
       </c>
     </row>
@@ -936,22 +936,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,58</t>
+          <t>19,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,12</t>
+          <t>20,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>19,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,63</t>
+          <t>19,75</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,37 +961,37 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,41</t>
+          <t>19,47</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,54</t>
+          <t>18,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,99</t>
+          <t>19,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,38</t>
+          <t>19,43</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19,78</t>
+          <t>19,91</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>18,85</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,33</t>
+          <t>19,42</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,23; 20,0</t>
+          <t>19,32; 20,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,61; 20,87</t>
+          <t>19,79; 21,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,6; 19,42</t>
+          <t>18,68; 19,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,19; 20,26</t>
+          <t>19,3; 20,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 19,53</t>
+          <t>18,8; 19,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,01; 19,86</t>
+          <t>19,11; 19,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,22; 18,86</t>
+          <t>18,29; 18,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,58; 19,48</t>
+          <t>18,6; 19,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,14; 19,66</t>
+          <t>19,2; 19,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,46; 20,2</t>
+          <t>19,53; 20,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,51; 19,07</t>
+          <t>18,58; 19,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,02; 19,73</t>
+          <t>19,14; 19,85</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,11</t>
+          <t>19,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,67</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,58</t>
+          <t>18,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,91</t>
+          <t>17,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,59</t>
+          <t>18,56</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,28</t>
+          <t>18,61</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,47</t>
+          <t>18,65</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,83</t>
+          <t>19,0</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18,48</t>
+          <t>18,8</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,52</t>
+          <t>18,76</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,91</t>
+          <t>17,94</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,35; 20,52</t>
+          <t>18,66; 20,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,22; 19,31</t>
+          <t>18,4; 19,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,99; 19,26</t>
+          <t>18,27; 19,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,47; 18,34</t>
+          <t>17,44; 18,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,07; 19,39</t>
+          <t>18,11; 19,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,77; 18,83</t>
+          <t>18,13; 19,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 19,36</t>
+          <t>18,04; 19,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,4; 18,55</t>
+          <t>17,43; 18,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,39; 19,53</t>
+          <t>18,5; 19,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,12; 18,89</t>
+          <t>18,44; 19,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 19,05</t>
+          <t>18,33; 19,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 18,3</t>
+          <t>17,61; 18,37</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,68</t>
+          <t>19,78</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,69</t>
+          <t>19,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>19,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>19,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,0</t>
+          <t>19,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,18</t>
+          <t>19,29</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,73</t>
+          <t>18,82</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,76</t>
+          <t>18,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,35</t>
+          <t>19,41</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,44</t>
+          <t>19,62</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>18,85</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,01</t>
+          <t>19,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,37; 20,09</t>
+          <t>19,44; 20,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,33; 20,23</t>
+          <t>19,56; 20,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,64; 19,3</t>
+          <t>18,79; 19,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,89; 19,71</t>
+          <t>18,95; 19,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,72; 19,33</t>
+          <t>18,74; 19,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,9; 19,51</t>
+          <t>18,98; 19,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,46; 19,06</t>
+          <t>18,53; 19,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,42; 19,16</t>
+          <t>18,52; 19,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,12; 19,61</t>
+          <t>19,18; 19,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,17; 19,73</t>
+          <t>19,36; 19,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,62; 19,08</t>
+          <t>18,74; 19,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,79; 19,31</t>
+          <t>18,83; 19,41</t>
         </is>
       </c>
     </row>
